--- a/Data/Raw/Mid Bootcamp Project- DATA.xlsx
+++ b/Data/Raw/Mid Bootcamp Project- DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aloaskari/Desktop/Ironhack/Bootcamp/Projects/MBP/Data/Raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aloaskari/Desktop/Ironhack/Bootcamp/Projects/MidBootcampProject/Data/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743460C3-62A6-6949-9BA8-EDC9B3F75B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2AC5C0-0A48-5C45-B1F9-B7309B9009D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{63011313-BA69-384F-A6CE-43B75AF1933A}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{63011313-BA69-384F-A6CE-43B75AF1933A}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -2420,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D7F7A8-C243-224B-9112-AF5BF93AC24E}">
   <dimension ref="A1:GT865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A826" workbookViewId="0">
-      <selection activeCell="A687" sqref="A687"/>
+    <sheetView tabSelected="1" topLeftCell="A754" workbookViewId="0">
+      <selection activeCell="K761" sqref="K761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -43341,7 +43341,10 @@
       <c r="J761" s="4">
         <v>6</v>
       </c>
-      <c r="K761" s="6"/>
+      <c r="K761" s="6">
+        <f t="shared" si="113"/>
+        <v>30</v>
+      </c>
       <c r="L761" s="6">
         <v>2</v>
       </c>
@@ -43354,7 +43357,7 @@
       </c>
       <c r="O761" s="7">
         <f t="shared" ref="O761:O790" si="115">(K761/L761)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="762" spans="1:15">
